--- a/ancillary/alignment.xlsx
+++ b/ancillary/alignment.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/manuele/Desktop/ZAMO Ontology/ancillary/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309C0B92-EB53-CF4E-8A9E-CAF65171EDF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A708ED1-B4B6-F849-B38C-96CB30BAA491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="4" xr2:uid="{1A2BE461-13BF-7449-83BB-1D41C2DD75EE}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="243">
   <si>
     <t>CLASSES</t>
   </si>
@@ -758,13 +758,28 @@
   </si>
   <si>
     <t>http://www.w3.org/ns/org#OrganizationalUnit</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#exactMatch</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#narrowMatch</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#relatedMatch</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#closeMatch</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/2004/02/skos/core#broaderMatch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -824,6 +839,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -1000,7 +1021,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1063,6 +1084,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1075,10 +1103,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,23 +1127,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1468,26 +1480,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="10"/>
@@ -2018,26 +2030,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55"/>
     </row>
     <row r="2" spans="1:13" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
@@ -2576,26 +2588,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="47" t="s">
+      <c r="B2" s="51"/>
+      <c r="C2" s="50" t="s">
         <v>217</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="49"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="51"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
@@ -3641,8 +3653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63265BDA-A306-C94B-B5E3-29820C74C3E1}">
   <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3653,719 +3665,878 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="44" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57" t="s">
+      <c r="B2" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57" t="s">
+      <c r="B4" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57" t="s">
+      <c r="B6" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="59" t="s">
+      <c r="B7" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="46" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57" t="s">
+      <c r="B9" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57" t="s">
+      <c r="B10" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57" t="s">
+      <c r="B12" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="57"/>
-      <c r="C13" s="57" t="s">
+      <c r="B13" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57" t="s">
+      <c r="B15" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60" t="s">
+      <c r="B16" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C16" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="60" t="s">
+      <c r="A17" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="60"/>
-      <c r="C17" s="60" t="s">
+      <c r="B17" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C17" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="60" t="s">
+      <c r="A18" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60" t="s">
+      <c r="B18" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60" t="s">
+      <c r="B19" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="60" t="s">
+      <c r="A20" t="s">
         <v>115</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60" t="s">
+      <c r="B20" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C20" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="60" t="s">
+      <c r="A21" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60" t="s">
+      <c r="B21" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C21" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="60" t="s">
+      <c r="A22" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="60" t="s">
+      <c r="B22" s="59" t="s">
+        <v>241</v>
+      </c>
+      <c r="C22" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="60" t="s">
+      <c r="A23" t="s">
         <v>120</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60" t="s">
+      <c r="B23" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
+      <c r="A24" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60" t="s">
+      <c r="B24" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C24" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="60" t="s">
+      <c r="A25" t="s">
         <v>124</v>
       </c>
-      <c r="B25" s="60"/>
-      <c r="C25" s="60" t="s">
+      <c r="B25" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="60" t="s">
+      <c r="A26" t="s">
         <v>125</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="59" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="29" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="60" t="s">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="61" t="s">
+      <c r="A28" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="62" t="s">
+      <c r="B28" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="61" t="s">
+      <c r="A29" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="60" t="s">
+      <c r="A30" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60" t="s">
+      <c r="B30" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C30" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="60" t="s">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60" t="s">
+      <c r="B31" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C31" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="60" t="s">
+      <c r="A32" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60" t="s">
+      <c r="B32" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C32" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="60" t="s">
+      <c r="A33" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60" t="s">
+      <c r="B33" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="60" t="s">
+      <c r="A34" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60" t="s">
+      <c r="B34" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="60" t="s">
+      <c r="A35" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60" t="s">
+      <c r="B35" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C35" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="60" t="s">
+      <c r="A36" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60" t="s">
+      <c r="B36" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C36" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="60" t="s">
+      <c r="A37" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60" t="s">
+      <c r="B37" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C37" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="60" t="s">
+      <c r="A38" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60" t="s">
+      <c r="B38" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C38" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60" t="s">
+      <c r="B39" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="61" t="s">
+      <c r="A40" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="61" t="s">
+      <c r="B40" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="41" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="61" t="s">
+      <c r="A41" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60" t="s">
+      <c r="B41" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C41" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="61" t="s">
+      <c r="A42" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60" t="s">
+      <c r="B42" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="63" t="s">
+      <c r="B43" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C43" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="61" t="s">
+    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A44" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="62" t="s">
+      <c r="B44" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C44" s="30" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="61" t="s">
+      <c r="A45" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60" t="s">
+      <c r="B45" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="61" t="s">
+      <c r="A46" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60" t="s">
+      <c r="B46" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C46" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60" t="s">
+      <c r="B47" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C47" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="61" t="s">
+      <c r="A48" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60" t="s">
+      <c r="B48" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C48" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="61" t="s">
+      <c r="A49" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="63" t="s">
+      <c r="B49" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="61" t="s">
+      <c r="A50" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60" t="s">
+      <c r="B50" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C50" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60" t="s">
+      <c r="B51" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C51" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="61" t="s">
+      <c r="A52" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60" t="s">
+      <c r="B52" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="61" t="s">
+      <c r="A53" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60" t="s">
+      <c r="B53" s="59" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="61" t="s">
+      <c r="A54" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60" t="s">
+      <c r="B54" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="61" t="s">
+      <c r="A55" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="B55" s="64"/>
-      <c r="C55" s="60" t="s">
+      <c r="B55" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C55" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="61" t="s">
+      <c r="A56" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60" t="s">
+      <c r="B56" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C56" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="61" t="s">
+      <c r="A57" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60" t="s">
+      <c r="B57" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C57" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60" t="s">
+      <c r="B58" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C58" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="61" t="s">
+      <c r="A59" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60" t="s">
+      <c r="B59" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="61" t="s">
+      <c r="A60" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60" t="s">
+      <c r="B60" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60" t="s">
+      <c r="B61" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60" t="s">
+      <c r="B62" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="61" t="s">
+    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B63" s="60"/>
-      <c r="C63" s="62" t="s">
+      <c r="B63" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C63" s="30" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="60" t="s">
+      <c r="A64" t="s">
         <v>67</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60" t="s">
+      <c r="B64" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="60" t="s">
+      <c r="A65" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60" t="s">
+      <c r="B65" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="60" t="s">
+      <c r="A66" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60" t="s">
+      <c r="B66" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="60" t="s">
+      <c r="A67" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60" t="s">
+      <c r="B67" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="60" t="s">
+      <c r="A68" t="s">
         <v>9</v>
       </c>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60" t="s">
+      <c r="B68" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="60" t="s">
+      <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60" t="s">
+      <c r="B69" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C69" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="60" t="s">
+      <c r="A70" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60" t="s">
+      <c r="B70" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="60" t="s">
+      <c r="A71" t="s">
         <v>75</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60" t="s">
+      <c r="B71" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C71" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="60" t="s">
+      <c r="A72" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60" t="s">
+      <c r="B72" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C72" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="60" t="s">
+      <c r="A73" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60" t="s">
+      <c r="B73" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="60" t="s">
+      <c r="A74" t="s">
         <v>79</v>
       </c>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60" t="s">
+      <c r="B74" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="60" t="s">
+      <c r="A75" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60" t="s">
+      <c r="B75" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C75" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="60" t="s">
+      <c r="A76" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60" t="s">
+      <c r="B76" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="60" t="s">
+      <c r="A77" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60" t="s">
+      <c r="B77" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="60" t="s">
+      <c r="A78" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60" t="s">
+      <c r="B78" s="59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C78" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="60" t="s">
+      <c r="A79" t="s">
         <v>215</v>
       </c>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60" t="s">
+      <c r="B79" s="59" t="s">
+        <v>238</v>
+      </c>
+      <c r="C79" t="s">
         <v>216</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C53" r:id="rId1" xr:uid="{DA9BDF47-FBC1-A341-81C2-FE02330383D1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>